--- a/Thesaurus.xlsx
+++ b/Thesaurus.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SENA\Desktop\Investigacion\Articulos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maryu\Desktop\2024\Investigacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E518AE-6E2F-445D-9125-021A251C1B00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19AE1B9-9060-4898-8FC8-30790EB16C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{CBF535E4-71E5-47C2-9BF5-65E8EF8C5F03}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CBF535E4-71E5-47C2-9BF5-65E8EF8C5F03}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Articulos2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Articulos2!$A$1:$J$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$J$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="218">
   <si>
     <t>Término o Frase</t>
   </si>
@@ -347,9 +349,6 @@
     <t>Reduciendo la brecha de seguridad del IoT con una arquitectura de microservicios basada en TLS y OAuth2</t>
   </si>
   <si>
-    <t>http://scielo.senescyt.gob.ec/scielo.php?script=sci_arttext&amp;pid=S1390-860X2021000100094&amp;lang=es</t>
-  </si>
-  <si>
     <t>Revista: Programación matematica y software</t>
   </si>
   <si>
@@ -411,6 +410,308 @@
   </si>
   <si>
     <t>Microservices architecture</t>
+  </si>
+  <si>
+    <t>Comparación del rendimiento de las arquitecturas monolíticas y microservicios en los sistemas web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repositorio de la Universidad César Vallejo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Arquitecturas de microservicios para aplicaciones desplegadas en contenedores</t>
+  </si>
+  <si>
+    <t>Archivo digital UPM(universidad politécnica de Madrid</t>
+  </si>
+  <si>
+    <t>https://oa.upm.es/54274/</t>
+  </si>
+  <si>
+    <t>https://bibliotecadigital.udea.edu.co/handle/10495/37329</t>
+  </si>
+  <si>
+    <t>Estrategia para la implementaci´on de modelos de
+aprendizaje autom´atico (machine learning) usando
+arquitecturas basadas en microservicios en el contexto de
+la seguridad en ciudades inteligentes</t>
+  </si>
+  <si>
+    <t>enfoque basado en microservicios and " escalabilidad" and "mejorar"</t>
+  </si>
+  <si>
+    <t>microservicios AND ("arquitectura" OR "escalabilidad" OR "Kubernetes" OR "seguridad" OR "monolitos") AND "acceso abierto"</t>
+  </si>
+  <si>
+    <t>https://repositorio.utn.edu.ec/handle/123456789/15512</t>
+  </si>
+  <si>
+    <t>2023/</t>
+  </si>
+  <si>
+    <t>Desarrollo de un módulo contable para fortalecer la gestión financiera utilizando una arquitectura de software basada en microservicios en la empresa Inveservice FGL S.A.S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repositorio Digital Universidad Técnica del Norte </t>
+  </si>
+  <si>
+    <t>"Arquitectura de microservicios" and "Desafíos" and "oportunidades"  and "desarrollo de software"</t>
+  </si>
+  <si>
+    <t>"Arquitectura de microservicios: Desafíos y oportunidades en el desarrollo de software"</t>
+  </si>
+  <si>
+    <t>"Un enfoque basado en microservicios para mejorar la escalabilidad de sistemas"</t>
+  </si>
+  <si>
+    <t>“DESARROLLO DE MICROSERVICIOS PARA LA NUBE
+UTILIZANDO ECLIPSE MICROPROFILE Y HEROKU”</t>
+  </si>
+  <si>
+    <t>https://repositorio.puce.edu.ec/server/api/core/bitstreams/4e7e52c5-2bf1-4478-92f3-7e8d3dfab035/content</t>
+  </si>
+  <si>
+    <t>Repositorio PUCE</t>
+  </si>
+  <si>
+    <t>Análisis de patrones de resiliencia en una arquitectura basada en microservicios</t>
+  </si>
+  <si>
+    <t>https://sedici.unlp.edu.ar/handle/10915/149187</t>
+  </si>
+  <si>
+    <t>Repositorio Institucional de la UNLP</t>
+  </si>
+  <si>
+    <t>Arquitectura de microservicios: Desafíos y oportunidades en el desarrollo de software</t>
+  </si>
+  <si>
+    <t>Sistema de gestión de cotizaciones de servicios para empresas de telecomunicaciones mediante microservicios</t>
+  </si>
+  <si>
+    <t>Repositorio academico Universidad Peruana de Ciencias Aplicadas (UPC)</t>
+  </si>
+  <si>
+    <t>https://repositorioacademico.upc.edu.pe/handle/10757/671258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desarrollo de microservicios and "Kubernetes" and "Buenas prácticas" </t>
+  </si>
+  <si>
+    <t>"Desarrollo de microservicios con Kubernetes: Buenas prácticas y casos de uso"</t>
+  </si>
+  <si>
+    <t>https://repositorio.uss.edu.pe/handle/20.500.12802/9900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Metodología de conversión de aplicaciones monolíticas a microservicios desplegable en la nube para pequeñas empresas</t>
+  </si>
+  <si>
+    <t>Universidad señor de Sipán</t>
+  </si>
+  <si>
+    <t>Desarrollo de software basado en microservicios: un caso de estudio para evaluar sus ventajas e inconvenientes</t>
+  </si>
+  <si>
+    <t>Editorial Universitat Politècnica de València</t>
+  </si>
+  <si>
+    <t>proyecto de grado</t>
+  </si>
+  <si>
+    <t>https://riunet.upv.es/handle/10251/111173#</t>
+  </si>
+  <si>
+    <t>2022/</t>
+  </si>
+  <si>
+    <t>Desarrollo de microservicios con Kubernetes: Buenas prácticas y casos de uso</t>
+  </si>
+  <si>
+    <t>Publicación Técnica No. 733</t>
+  </si>
+  <si>
+    <t>Arquitectura de microservicios
+para optimizar el acceso a datos
+del SiT Log Lab</t>
+  </si>
+  <si>
+    <t>http://asdf.imt.mx/archivos/Publicaciones/PublicacionTecnica/pt733.pdf</t>
+  </si>
+  <si>
+    <t>"Migración" de "sistemas monolíticos" and "microservicios en la nube"</t>
+  </si>
+  <si>
+    <t>Migración de sistemas monolíticos a microservicios en la nube</t>
+  </si>
+  <si>
+    <t>Patrones de diseño and "arquitectura de microservicios" and "Implementación" and "mejores prácticas"</t>
+  </si>
+  <si>
+    <t>Patrones de diseño en la arquitectura de microservicios: Implementación y mejores prácticas</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/profile/Fredy-Vera-Rivera/publication/325192728_Metodo_de_automatizacion_del_despliegue_continuo_en_la_nube_para_la_implementacion_de_microservicios/links/5afd0394a6fdcc3a5a274c85/Metodo-de-automatizacion-del-despliegue-continuo-en-la-nube-para-la-implementacion-de-microservicios.pdf</t>
+  </si>
+  <si>
+    <t>Método de automatización del despliegue continuo en la
+nube para la implementación de microservicios</t>
+  </si>
+  <si>
+    <t>Documento</t>
+  </si>
+  <si>
+    <t>"Seguridad en microservicios" and "Soluciones" and prácticas recomendadas"</t>
+  </si>
+  <si>
+    <t>"Seguridad en microservicios: Soluciones y prácticas recomendadas"</t>
+  </si>
+  <si>
+    <t>http://51.143.95.221/handle/TecNM/6574</t>
+  </si>
+  <si>
+    <t>2023/10</t>
+  </si>
+  <si>
+    <t>Repositorio Institucional del Tecnológico Nacional de México (RI - TecNM)</t>
+  </si>
+  <si>
+    <t>Adaptación de un patrón de software en seguridad a la arquitectura de un Microservicio</t>
+  </si>
+  <si>
+    <t>Despliegue de microservicios mediante técnicas de virtualización ligeras basadas en contenedores</t>
+  </si>
+  <si>
+    <t>https://oa.upm.es/53075/</t>
+  </si>
+  <si>
+    <t>"Despliegue de microservicios" and "técnicas de virtualización ligeras" and "contenedores"</t>
+  </si>
+  <si>
+    <t>https://publicaciones.sadio.org.ar/index.php/JAIIO/article/view/928</t>
+  </si>
+  <si>
+    <t>Memorias de las JAIIO</t>
+  </si>
+  <si>
+    <t>Monolitos vs. Microservicios en Arquitectura de Software: Perspectivas para un Desarrollo Eficiente</t>
+  </si>
+  <si>
+    <t>Implementación de microservicios en sistemas críticos: Beneficios y desafíos</t>
+  </si>
+  <si>
+    <t>Implementación de microservicios  and Beneficios" and "desafíos"</t>
+  </si>
+  <si>
+    <t>Implementación de microservicios: Beneficios y desafíos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Memorias de las JAIIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Son los microservicios la mejor opción? Una evaluación de su eficacia y eficiencia frente a los monolitos </t>
+  </si>
+  <si>
+    <t>https://publicaciones.sadio.org.ar/index.php/JAIIO/article/view/933</t>
+  </si>
+  <si>
+    <t>Arquitectura de Software basada en Microservicios para
+Desarrollo de Aplicaciones Web</t>
+  </si>
+  <si>
+    <t>Universidad Técnica del Norte</t>
+  </si>
+  <si>
+    <t>http://138.59.13.30/bitstream/10786/1277/1/93%20Arquitectura%20de%20Software%20basada%20en%20Microservicios%20para%20Desarrollo%20de%20Aplicaciones%20Web.pdf</t>
+  </si>
+  <si>
+    <t>"Implementación de microservicios"  and Beneficios" and "desafíos"</t>
+  </si>
+  <si>
+    <t>https://revistas.ulasalle.edu.pe/innosoft/article/view/86</t>
+  </si>
+  <si>
+    <t>Pruebas de Software para Microservicios</t>
+  </si>
+  <si>
+    <t>Innovación y software</t>
+  </si>
+  <si>
+    <t>Documentp</t>
+  </si>
+  <si>
+    <t>Uso de microservicios para mejorar la resiliencia de sistemas distribuidos</t>
+  </si>
+  <si>
+    <t>Análisis de aplicaciones de arquitecturas monolíticas para su migración a arquitecturas basadas en microservicios</t>
+  </si>
+  <si>
+    <t>Escuela superior de ingenieria y tegnologia, la Laguna</t>
+  </si>
+  <si>
+    <t>https://riull.ull.es/xmlui/bitstream/handle/915/15475/Analisis%20de%20aplicaciones%20de%20arquitecturas%20monoliticas%20para%20su%20migracion%20a%20arquitecturas%20basadas%20en%20microservicios.pdf?sequence=1</t>
+  </si>
+  <si>
+    <t>Migración de aplicaciones monolíticas a microservicios</t>
+  </si>
+  <si>
+    <t>"Migración" and "aplicaciones monolíticas" and "microservicios"</t>
+  </si>
+  <si>
+    <t>https://riuma.uma.es/xmlui/handle/10630/19476</t>
+  </si>
+  <si>
+    <t>RIUMA-Repositorio Institucional de la universidad de Malaga</t>
+  </si>
+  <si>
+    <t>Diseño de una arquitectura basada en contenedores para la integración y el despliegue continuo (CI/CD)</t>
+  </si>
+  <si>
+    <t>Automatización de despliegue continuo en sistemas de microservicios</t>
+  </si>
+  <si>
+    <t>https://openaccess.uoc.edu/handle/10609/118346</t>
+  </si>
+  <si>
+    <t>Universitat Oberta de Catalunya</t>
+  </si>
+  <si>
+    <t>Autorización distribuida para aplicaciones basadas en microservicios</t>
+  </si>
+  <si>
+    <t>Mejores prácticas en la seguridad de sistemas basados en microservicios</t>
+  </si>
+  <si>
+    <t>Recomendación de prácticas de desarrollo de software, en una arquitectura de microservicios, que sean ambientalmente sostenibles. Caso de uso hipotético: sistema de compra de tiquetes en línea.</t>
+  </si>
+  <si>
+    <t>https://repositorio.ucenfotec.ac.cr/handle/123456789/418</t>
+  </si>
+  <si>
+    <t>Repositorio Institucional CENFOTEC</t>
+  </si>
+  <si>
+    <t>"Microservicios" and  "desarrollo de software"</t>
+  </si>
+  <si>
+    <t>Microservicios en el desarrollo de software</t>
+  </si>
+  <si>
+    <t>Diseño e implementación de un microservicio con Spring</t>
+  </si>
+  <si>
+    <t>2019-10</t>
+  </si>
+  <si>
+    <t>https://e-archivo.uc3m.es/entities/publication/ab91fa43-17d3-4813-ab0c-5d3bdd96b3a7</t>
+  </si>
+  <si>
+    <t>Universidad Carlos III de Madrid</t>
+  </si>
+  <si>
+    <t>Patrones de diseño de microservicios</t>
   </si>
 </sst>
 </file>
@@ -523,7 +824,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -614,9 +915,18 @@
     <xf numFmtId="15" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -633,7 +943,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -931,25 +1241,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8697ED96-0B89-4A16-B6F4-FE6B83B12F2F}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="F1" zoomScale="98" zoomScaleNormal="115" zoomScaleSheetLayoutView="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="98" zoomScaleNormal="115" zoomScaleSheetLayoutView="98" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.140625" customWidth="1"/>
-    <col min="2" max="3" width="25.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" customWidth="1"/>
+    <col min="2" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="43.5703125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.5546875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="69" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
@@ -981,7 +1291,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>0</v>
       </c>
@@ -1007,11 +1317,11 @@
       <c r="I2" s="16">
         <v>620</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -1022,7 +1332,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E3" s="16">
         <v>2024</v>
@@ -1039,11 +1349,11 @@
       <c r="I3" s="16">
         <v>42</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -1054,7 +1364,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E4" s="32">
         <v>45292</v>
@@ -1071,11 +1381,11 @@
       <c r="I4" s="16">
         <v>42</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -1086,7 +1396,7 @@
         <v>47</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E5" s="31">
         <v>44930</v>
@@ -1103,11 +1413,11 @@
       <c r="I5" s="16">
         <v>2</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -1118,7 +1428,7 @@
         <v>26</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E6" s="32">
         <v>43739</v>
@@ -1135,11 +1445,11 @@
       <c r="I6" s="16">
         <v>298</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -1150,7 +1460,7 @@
         <v>36</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E7" s="16">
         <v>2021</v>
@@ -1167,11 +1477,11 @@
       <c r="I7" s="16">
         <v>237</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="J7" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -1182,7 +1492,7 @@
         <v>40</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E8" s="16">
         <v>2020</v>
@@ -1199,11 +1509,11 @@
       <c r="I8" s="16">
         <v>108</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="J8" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -1214,7 +1524,7 @@
         <v>42</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E9" s="31">
         <v>45071</v>
@@ -1231,11 +1541,11 @@
       <c r="I9" s="16">
         <v>1</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="J9" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -1246,7 +1556,7 @@
         <v>50</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E10" s="16">
         <v>2019</v>
@@ -1263,11 +1573,11 @@
       <c r="I10" s="16">
         <v>226</v>
       </c>
-      <c r="J10" s="18" t="s">
+      <c r="J10" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -1278,7 +1588,7 @@
         <v>57</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E11" s="16">
         <v>2019</v>
@@ -1295,11 +1605,11 @@
       <c r="I11" s="16">
         <v>5</v>
       </c>
-      <c r="J11" s="18" t="s">
+      <c r="J11" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -1310,7 +1620,7 @@
         <v>63</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E12" s="16">
         <v>2019</v>
@@ -1327,11 +1637,11 @@
       <c r="I12" s="16">
         <v>60</v>
       </c>
-      <c r="J12" s="18" t="s">
+      <c r="J12" s="16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -1342,7 +1652,7 @@
         <v>64</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E13" s="16">
         <v>2017</v>
@@ -1359,11 +1669,11 @@
       <c r="I13" s="16">
         <v>19</v>
       </c>
-      <c r="J13" s="18" t="s">
+      <c r="J13" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -1374,7 +1684,7 @@
         <v>68</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E14" s="16">
         <v>2021</v>
@@ -1391,11 +1701,11 @@
       <c r="I14" s="16">
         <v>3</v>
       </c>
-      <c r="J14" s="18" t="s">
+      <c r="J14" s="16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -1406,7 +1716,7 @@
         <v>74</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E15" s="31">
         <v>44904</v>
@@ -1423,11 +1733,11 @@
       <c r="I15" s="16">
         <v>126</v>
       </c>
-      <c r="J15" s="18" t="s">
+      <c r="J15" s="16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -1438,7 +1748,7 @@
         <v>76</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E16" s="31">
         <v>43008</v>
@@ -1455,11 +1765,11 @@
       <c r="I16" s="16">
         <v>217</v>
       </c>
-      <c r="J16" s="18" t="s">
+      <c r="J16" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -1470,7 +1780,7 @@
         <v>83</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E17" s="16">
         <v>2017</v>
@@ -1487,22 +1797,22 @@
       <c r="I17" s="16">
         <v>389</v>
       </c>
-      <c r="J17" s="18" t="s">
+      <c r="J17" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>16</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>87</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E18" s="33">
         <v>44936</v>
@@ -1519,11 +1829,11 @@
       <c r="I18" s="16">
         <v>61</v>
       </c>
-      <c r="J18" s="18" t="s">
+      <c r="J18" s="16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -1534,7 +1844,7 @@
         <v>87</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E19" s="16">
         <v>2023</v>
@@ -1551,11 +1861,11 @@
       <c r="I19" s="16">
         <v>61</v>
       </c>
-      <c r="J19" s="18" t="s">
+      <c r="J19" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>18</v>
       </c>
@@ -1566,7 +1876,7 @@
         <v>90</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E20" s="31">
         <v>45100</v>
@@ -1575,7 +1885,7 @@
         <v>93</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H20" s="13" t="s">
         <v>91</v>
@@ -1583,11 +1893,11 @@
       <c r="I20" s="16">
         <v>6</v>
       </c>
-      <c r="J20" s="18" t="s">
+      <c r="J20" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -1598,16 +1908,16 @@
         <v>90</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E21" s="16">
         <v>2021</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="H21" s="13" t="s">
         <v>100</v>
@@ -1615,25 +1925,41 @@
       <c r="I21" s="16">
         <v>3</v>
       </c>
-      <c r="J21" s="18" t="s">
+      <c r="J21" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>20</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
+      <c r="B22" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>217</v>
+      </c>
       <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="18"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E22" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="I22" s="16">
+        <v>2690</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -1643,9 +1969,9 @@
       <c r="G23" s="17"/>
       <c r="H23" s="13"/>
       <c r="I23" s="16"/>
-      <c r="J23" s="18"/>
-    </row>
-    <row r="24" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J23" s="16"/>
+    </row>
+    <row r="24" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1657,7 +1983,7 @@
       <c r="I24" s="21"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1669,7 +1995,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="9"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1681,7 +2007,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="9"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1693,7 +2019,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="9"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1705,7 +2031,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="9"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1717,7 +2043,7 @@
       <c r="I29" s="1"/>
       <c r="J29" s="9"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1729,7 +2055,7 @@
       <c r="I30" s="1"/>
       <c r="J30" s="9"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1741,7 +2067,7 @@
       <c r="I31" s="1"/>
       <c r="J31" s="9"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1753,7 +2079,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="9"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1765,7 +2091,7 @@
       <c r="I33" s="1"/>
       <c r="J33" s="9"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1777,7 +2103,7 @@
       <c r="I34" s="1"/>
       <c r="J34" s="9"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1789,7 +2115,7 @@
       <c r="I35" s="1"/>
       <c r="J35" s="9"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="28"/>
       <c r="B36" s="29"/>
       <c r="C36" s="29"/>
@@ -1801,7 +2127,7 @@
       <c r="I36" s="28"/>
       <c r="J36" s="9"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="28"/>
       <c r="B37" s="29"/>
       <c r="C37" s="29"/>
@@ -1813,7 +2139,7 @@
       <c r="I37" s="28"/>
       <c r="J37" s="9"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="28"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -1825,7 +2151,7 @@
       <c r="I38" s="28"/>
       <c r="J38" s="9"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="28"/>
       <c r="B39" s="27"/>
       <c r="C39" s="27"/>
@@ -1837,7 +2163,7 @@
       <c r="I39" s="28"/>
       <c r="J39" s="9"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="28"/>
       <c r="B40" s="28"/>
       <c r="C40" s="27"/>
@@ -1849,7 +2175,7 @@
       <c r="I40" s="28"/>
       <c r="J40" s="9"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B41" s="27"/>
       <c r="C41" s="27"/>
       <c r="D41" s="9"/>
@@ -1860,7 +2186,7 @@
       <c r="I41" s="28"/>
       <c r="J41" s="9"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="28"/>
       <c r="B42" s="27"/>
       <c r="C42" s="27"/>
@@ -1872,7 +2198,7 @@
       <c r="I42" s="28"/>
       <c r="J42" s="9"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="28"/>
       <c r="B43" s="27"/>
       <c r="C43" s="27"/>
@@ -1884,7 +2210,7 @@
       <c r="I43" s="28"/>
       <c r="J43" s="9"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="28"/>
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
@@ -1896,7 +2222,7 @@
       <c r="I44" s="28"/>
       <c r="J44" s="9"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="28"/>
       <c r="B45" s="27"/>
       <c r="C45" s="27"/>
@@ -1908,7 +2234,7 @@
       <c r="I45" s="28"/>
       <c r="J45" s="9"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="28"/>
       <c r="B46" s="27"/>
       <c r="C46" s="27"/>
@@ -1920,7 +2246,7 @@
       <c r="I46" s="28"/>
       <c r="J46" s="9"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="28"/>
       <c r="B47" s="27"/>
       <c r="C47" s="27"/>
@@ -1932,7 +2258,7 @@
       <c r="I47" s="28"/>
       <c r="J47" s="9"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -1944,7 +2270,7 @@
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
     </row>
-    <row r="49" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H49" s="15"/>
     </row>
   </sheetData>
@@ -1968,9 +2294,1031 @@
     <hyperlink ref="F17" r:id="rId16" xr:uid="{B6D2E6C8-3D4F-4807-A3C7-7E477484C153}"/>
     <hyperlink ref="F18" r:id="rId17" xr:uid="{3434BB5F-2EC6-4B09-9598-E38F573A9AA5}"/>
     <hyperlink ref="F20" r:id="rId18" xr:uid="{CA12FAD3-A0D3-4F8B-8841-36A91E2611EF}"/>
-    <hyperlink ref="F21" r:id="rId19" xr:uid="{E6E2C8E3-500D-4E2D-882E-24E82AFF49C3}"/>
+    <hyperlink ref="F21" r:id="rId19" display="http://scielo.senescyt.gob.ec/scielo.php?script=sci_arttext&amp;pid=S1390-860X2021000100094&amp;lang=es" xr:uid="{E6E2C8E3-500D-4E2D-882E-24E82AFF49C3}"/>
+    <hyperlink ref="F22" r:id="rId20" xr:uid="{789B53AF-9F4B-4E3F-8B4C-57277CBA0383}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BACD6F7-4300-4BFF-9572-39E8D52394AB}">
+  <dimension ref="A1:J50"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="F1" zoomScale="98" zoomScaleNormal="115" zoomScaleSheetLayoutView="98" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.109375" customWidth="1"/>
+    <col min="2" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="43.5546875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="41.109375" customWidth="1"/>
+    <col min="8" max="8" width="69" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="20"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="18"/>
+    </row>
+    <row r="3" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="16">
+        <v>2017</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="I3" s="16">
+        <v>167</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="32">
+        <v>43435</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="I4" s="16">
+        <v>27</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="I5" s="16">
+        <v>27</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="32">
+        <v>45328</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="I6" s="16">
+        <v>178</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16">
+        <v>2022</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="I7" s="16">
+        <v>178</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="32">
+        <v>44958</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I8" s="16">
+        <v>178</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>6</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="32">
+        <v>45231</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="I9" s="16">
+        <v>18</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>7</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="I10" s="16">
+        <v>18</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>8</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="35">
+        <v>45544</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="I11" s="16">
+        <v>18</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>9</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="16">
+        <v>2023</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="I12" s="16">
+        <v>4</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>10</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="I13" s="16">
+        <v>75</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>11</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="I14" s="16">
+        <v>3</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>12</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="32">
+        <v>43282</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="I15" s="16">
+        <v>1</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>13</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="31">
+        <v>45537</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="I16" s="16">
+        <v>855</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>14</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="31">
+        <v>45537</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="I17" s="16">
+        <v>86</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>15</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="I18" s="16">
+        <v>86</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>16</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="I19" s="16">
+        <v>269</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>17</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="31">
+        <v>45477</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="I20" s="16">
+        <v>442</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>18</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="31">
+        <v>43938</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="I21" s="16">
+        <v>1140</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>19</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="32">
+        <v>43862</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="I22" s="16">
+        <v>2930</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <v>20</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="32">
+        <v>45108</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="I23" s="16">
+        <v>2190</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="18"/>
+    </row>
+    <row r="25" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="21"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="24"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="9"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="9"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="9"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="9"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="9"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="9"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="9"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="9"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="9"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="9"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="9"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="28"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="9"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="28"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="9"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="28"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="9"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="28"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="9"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="28"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="9"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="9"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="28"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="9"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="28"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="9"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="28"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="9"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="28"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="9"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="28"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="9"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="28"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="9"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H50" s="15"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:J24" xr:uid="{9120DF18-0D78-4B36-87D3-873C50E5E09A}"/>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{5585B8E9-AC79-4D32-BEAD-340387BC4A2B}"/>
+    <hyperlink ref="F5" r:id="rId2" xr:uid="{7347FD32-49ED-4579-8DCC-12976BC6816B}"/>
+    <hyperlink ref="F7" r:id="rId3" xr:uid="{855A8F32-EB41-41B3-A68E-74BA5578F3BD}"/>
+    <hyperlink ref="F8" r:id="rId4" xr:uid="{19DCAFBD-A5D7-4A7E-9E7F-5ED1123B1C97}"/>
+    <hyperlink ref="F9" r:id="rId5" xr:uid="{4BE655AA-B711-4C5D-B8A0-3F2CCA887B50}"/>
+    <hyperlink ref="F10" r:id="rId6" xr:uid="{995E0338-8971-47F8-9DF2-8CE761F6302C}"/>
+    <hyperlink ref="F12" r:id="rId7" xr:uid="{3F00EA36-EBBA-4B57-9087-A71771063C98}"/>
+    <hyperlink ref="F14" r:id="rId8" xr:uid="{08BCA5A4-34A6-4314-9FE8-02A86A8CEEAF}"/>
+    <hyperlink ref="F16" r:id="rId9" xr:uid="{09A8A7BA-2389-4790-8E9A-A4E89C976EC0}"/>
+    <hyperlink ref="F17" r:id="rId10" xr:uid="{F899CFE7-7044-42FB-9E4E-DCDF5410C0EB}"/>
+    <hyperlink ref="F18" r:id="rId11" xr:uid="{ABD35FBC-13A0-489A-BE65-31B77DC5A6CF}"/>
+    <hyperlink ref="F19" r:id="rId12" xr:uid="{B58D6C11-3E06-4467-8E36-E80E2A119AE1}"/>
+    <hyperlink ref="F20" r:id="rId13" xr:uid="{3D2181A4-951D-45E4-80E2-32947F0D3B16}"/>
+    <hyperlink ref="F21" r:id="rId14" xr:uid="{2061C532-415A-4C34-AFB7-5A04008FBD04}"/>
+    <hyperlink ref="F23" r:id="rId15" xr:uid="{6592C589-A894-4801-AC0B-6B78FE1EB4C2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
--- a/Thesaurus.xlsx
+++ b/Thesaurus.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maryu\Desktop\2024\Investigacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Other\Desktop\Maryury\Investigacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19AE1B9-9060-4898-8FC8-30790EB16C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CBF535E4-71E5-47C2-9BF5-65E8EF8C5F03}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Articulos2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Articulos2!$A$1:$J$24</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$J$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Articulos2!$A$1:$K$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$K$23</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="227">
   <si>
     <t>Término o Frase</t>
   </si>
@@ -277,9 +276,6 @@
   </si>
   <si>
     <t xml:space="preserve">Revista UNACIENCIA </t>
-  </si>
-  <si>
-    <t>116UNACIENCIA.Revista de Estudios e InvestigacionesUn acercamiento a los microservicios</t>
   </si>
   <si>
     <t>Comparación del rendimiento de las arquitecturas monolíticas y
@@ -713,11 +709,41 @@
   <si>
     <t>Patrones de diseño de microservicios</t>
   </si>
+  <si>
+    <t>Ballesteros Toro, Y. D. (2024). Desarrollo y certificación de un Sistema Web basado en Microservicios.</t>
+  </si>
+  <si>
+    <t>Cita APA</t>
+  </si>
+  <si>
+    <t>Alvarez Valdez, M. A., &amp; Llivicota León, J. S. (2024). Desarrollo e implementación de un módulo como repositorio de recursos colaborativos mediante Spring, Angular y PostgreSQL para la plataforma de Edutainment del grupo de GIHP4C de la Universidad Politécnica Salesiana (Bachelor's thesis).</t>
+  </si>
+  <si>
+    <t>Penagos Sanchez, J. V. (2023). Estudio de Métricas y Patrones de Seguridad en Microservicios.</t>
+  </si>
+  <si>
+    <t>Mejía, C., &amp; Noel, D. Arquitectura de micro servicios para mejorar la calidad de software en una entidad bancaria de Lima metropolitana, 2022</t>
+  </si>
+  <si>
+    <t>116UNACIENCIA.Revista de Estudios e Investigaciones : Un acercamiento a los microservicios</t>
+  </si>
+  <si>
+    <t>Suárez, K. T. G., Anaya, R., &amp; Cano, A. F. (2017). Un acercamiento a los microservicios. UNACIENCIA: Revista de Estudios e Investigaciones, 10(19), 116-126.</t>
+  </si>
+  <si>
+    <t>Toledo Azorza, M. A. J. (2017). Comparación del rendimiento de las arquitecturas monolíticas y microservicios en los sistemas web.</t>
+  </si>
+  <si>
+    <t>Moreno Belinchón, D. (2018). Despliegue de microservicios mediante técnicas de virtualización ligeras basadas en contenedores.</t>
+  </si>
+  <si>
+    <t>Citacion Norma APA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -926,7 +952,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1238,28 +1264,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8697ED96-0B89-4A16-B6F4-FE6B83B12F2F}">
-  <dimension ref="A1:J49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="98" zoomScaleNormal="115" zoomScaleSheetLayoutView="98" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="C1" zoomScale="98" zoomScaleNormal="115" zoomScaleSheetLayoutView="98" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.109375" customWidth="1"/>
-    <col min="2" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="43.5546875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="69" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="17.88671875" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="2" max="4" width="25.28515625" customWidth="1"/>
+    <col min="5" max="5" width="40.28515625" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
+    <col min="7" max="7" width="43.5703125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="69" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
@@ -1270,28 +1296,31 @@
         <v>10</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>0</v>
       </c>
@@ -1301,27 +1330,28 @@
       <c r="C2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="31">
+      <c r="D2" s="13"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="31">
         <v>43399</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="H2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="I2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="16">
+      <c r="J2" s="16">
         <v>620</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="K2" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -1332,28 +1362,31 @@
         <v>16</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" s="16">
+        <v>217</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="16">
         <v>2024</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="G3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="H3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="I3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="16">
+      <c r="J3" s="16">
         <v>42</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="K3" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="195" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -1363,29 +1396,32 @@
       <c r="C4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E4" s="32">
+      <c r="D4" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="32">
         <v>45292</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="G4" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="H4" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="I4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="16">
+      <c r="J4" s="16">
         <v>42</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="K4" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -1395,29 +1431,32 @@
       <c r="C5" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="E5" s="31">
+      <c r="D5" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="31">
         <v>44930</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="G5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="H5" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="I5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="16">
+      <c r="J5" s="16">
         <v>2</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="K5" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -1427,29 +1466,30 @@
       <c r="C6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E6" s="32">
+      <c r="D6" s="13"/>
+      <c r="E6" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="32">
         <v>43739</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="G6" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="H6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="I6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="16">
+      <c r="J6" s="16">
         <v>298</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="K6" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -1459,29 +1499,30 @@
       <c r="C7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="E7" s="16">
+      <c r="D7" s="13"/>
+      <c r="E7" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="16">
         <v>2021</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="G7" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="H7" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="I7" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="16">
+      <c r="J7" s="16">
         <v>237</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="K7" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -1491,29 +1532,30 @@
       <c r="C8" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="E8" s="16">
+      <c r="D8" s="13"/>
+      <c r="E8" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="16">
         <v>2020</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="G8" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="H8" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="I8" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="16">
+      <c r="J8" s="16">
         <v>108</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="K8" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -1523,29 +1565,30 @@
       <c r="C9" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" s="31">
+      <c r="D9" s="13"/>
+      <c r="E9" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="31">
         <v>45071</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="G9" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="H9" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="I9" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="16">
+      <c r="J9" s="16">
         <v>1</v>
       </c>
-      <c r="J9" s="16" t="s">
+      <c r="K9" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -1555,29 +1598,30 @@
       <c r="C10" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="E10" s="16">
+      <c r="D10" s="13"/>
+      <c r="E10" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="16">
         <v>2019</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="G10" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="H10" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="I10" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="16">
+      <c r="J10" s="16">
         <v>226</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="K10" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -1587,61 +1631,63 @@
       <c r="C11" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E11" s="16">
+      <c r="D11" s="13"/>
+      <c r="E11" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="16">
         <v>2019</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="G11" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="H11" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="I11" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="16">
+      <c r="J11" s="16">
         <v>5</v>
       </c>
-      <c r="J11" s="16" t="s">
+      <c r="K11" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>10</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E12" s="16">
+      <c r="D12" s="13"/>
+      <c r="E12" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="16">
         <v>2019</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="G12" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="H12" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="I12" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="I12" s="16">
+      <c r="J12" s="16">
         <v>60</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="K12" s="16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -1651,651 +1697,693 @@
       <c r="C13" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E13" s="16">
+      <c r="D13" s="13"/>
+      <c r="E13" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="16">
         <v>2017</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="G13" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="H13" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="I13" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="I13" s="16">
+      <c r="J13" s="16">
         <v>19</v>
       </c>
-      <c r="J13" s="16" t="s">
+      <c r="K13" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>12</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="E14" s="16">
+      <c r="D14" s="13"/>
+      <c r="E14" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="16">
         <v>2021</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="G14" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="H14" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="I14" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="I14" s="16">
+      <c r="J14" s="16">
         <v>3</v>
       </c>
-      <c r="J14" s="16" t="s">
+      <c r="K14" s="16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>13</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E15" s="31">
+      <c r="D15" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" s="31">
         <v>44904</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="G15" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="H15" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="I15" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="I15" s="16">
+      <c r="J15" s="16">
         <v>126</v>
       </c>
-      <c r="J15" s="16" t="s">
+      <c r="K15" s="16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>14</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="E16" s="31">
+        <v>223</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="31">
         <v>43008</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="G16" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="H16" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="I16" s="16">
+      <c r="I16" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="J16" s="16">
         <v>217</v>
       </c>
-      <c r="J16" s="16" t="s">
+      <c r="K16" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>15</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="E17" s="16">
+        <v>82</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="16">
         <v>2017</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="G17" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="G17" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="I17" s="16">
+      <c r="I17" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="J17" s="16">
         <v>389</v>
       </c>
-      <c r="J17" s="16" t="s">
+      <c r="K17" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>16</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="E18" s="33">
+        <v>86</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="33">
         <v>44936</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="G18" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="I18" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="H18" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="I18" s="16">
+      <c r="J18" s="16">
         <v>61</v>
       </c>
-      <c r="J18" s="16" t="s">
+      <c r="K18" s="16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>17</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C19" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="16">
+        <v>2023</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="I19" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="E19" s="16">
-        <v>2023</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="I19" s="16">
+      <c r="J19" s="16">
         <v>61</v>
       </c>
-      <c r="J19" s="16" t="s">
+      <c r="K19" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>18</v>
       </c>
       <c r="B20" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" s="31">
+        <v>45100</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="I20" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="E20" s="31">
-        <v>45100</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="I20" s="16">
+      <c r="J20" s="16">
         <v>6</v>
       </c>
-      <c r="J20" s="16" t="s">
+      <c r="K20" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>19</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="E21" s="16">
+        <v>89</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" s="16">
         <v>2021</v>
       </c>
-      <c r="F21" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="I21" s="16">
+      <c r="G21" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="J21" s="16">
         <v>3</v>
       </c>
-      <c r="J21" s="16" t="s">
+      <c r="K21" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>20</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="G22" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="H22" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="G22" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="I22" s="16">
+      <c r="I22" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="J22" s="16">
         <v>2690</v>
       </c>
-      <c r="J22" s="16" t="s">
+      <c r="K22" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
-      <c r="D23" s="16"/>
+      <c r="D23" s="13"/>
       <c r="E23" s="16"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="13"/>
       <c r="J23" s="16"/>
-    </row>
-    <row r="24" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K23" s="16"/>
+    </row>
+    <row r="24" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="21"/>
+      <c r="D24" s="4"/>
       <c r="E24" s="21"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="24"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F24" s="21"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="24"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="1"/>
+      <c r="D25" s="2"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="9"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F25" s="1"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="1"/>
+      <c r="D26" s="2"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="9"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F26" s="1"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="9"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="1"/>
+      <c r="D27" s="2"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="9"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F27" s="1"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="9"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="1"/>
+      <c r="D28" s="2"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="9"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F28" s="1"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="1"/>
+      <c r="D29" s="2"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="9"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F29" s="1"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="9"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="1"/>
+      <c r="D30" s="2"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="9"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F30" s="1"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="9"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="1"/>
+      <c r="D31" s="2"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="9"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F31" s="1"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="1"/>
+      <c r="D32" s="2"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="9"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F32" s="1"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="9"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="1"/>
+      <c r="D33" s="2"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="9"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F33" s="1"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="9"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="1"/>
+      <c r="D34" s="2"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="9"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F34" s="1"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="9"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="1"/>
+      <c r="D35" s="2"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="9"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F35" s="1"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="9"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="28"/>
       <c r="B36" s="29"/>
       <c r="C36" s="29"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="9"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="26"/>
       <c r="H36" s="9"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="9"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I36" s="9"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="9"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="28"/>
       <c r="B37" s="29"/>
       <c r="C37" s="29"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="9"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D37" s="29"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="9"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="28"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="24"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="26"/>
       <c r="H38" s="24"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="9"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I38" s="24"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="9"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="28"/>
       <c r="B39" s="27"/>
       <c r="C39" s="27"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="9"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D39" s="27"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="9"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="28"/>
       <c r="B40" s="28"/>
       <c r="C40" s="27"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="9"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D40" s="27"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="9"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" s="27"/>
       <c r="C41" s="27"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="9"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D41" s="27"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="9"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="28"/>
       <c r="B42" s="27"/>
       <c r="C42" s="27"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="9"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D42" s="27"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="9"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="28"/>
       <c r="B43" s="27"/>
       <c r="C43" s="27"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="9"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D43" s="27"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="9"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="9"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D44" s="27"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="9"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="27"/>
       <c r="C45" s="27"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="9"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D45" s="27"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="9"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="28"/>
       <c r="B46" s="27"/>
       <c r="C46" s="27"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="9"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D46" s="27"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="9"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="28"/>
       <c r="B47" s="27"/>
       <c r="C47" s="27"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="9"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D47" s="27"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="9"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="11"/>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
-    </row>
-    <row r="49" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H49" s="15"/>
+      <c r="K48" s="9"/>
+    </row>
+    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I49" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J23" xr:uid="{9120DF18-0D78-4B36-87D3-873C50E5E09A}"/>
+  <autoFilter ref="A1:K23"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{79F9FFAB-E9B0-4BE4-838B-DA14376CC22A}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{E9D5A3FA-966C-4805-8BDC-2AD1D4A6911F}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{8C1BDEFC-E4EF-4734-9813-7D3F7E355CC8}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{F84EE986-DA7B-424A-B062-0DB098CCFCC5}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{9D5F9BB2-D866-4F66-85D7-1CD91D09522E}"/>
-    <hyperlink ref="F7" r:id="rId6" xr:uid="{3D17C8F2-D2A9-455D-9C9A-9EBF91906E15}"/>
-    <hyperlink ref="F8" r:id="rId7" xr:uid="{DA5E35C9-B0BF-4B8D-8786-FD16DAD6F35D}"/>
-    <hyperlink ref="F9" r:id="rId8" xr:uid="{41D12D92-AF1B-4F48-945F-9A82BFB45264}"/>
-    <hyperlink ref="F10" r:id="rId9" xr:uid="{118E6BE4-9ECF-41A2-BAB4-C5D4A4F94E84}"/>
-    <hyperlink ref="F11" r:id="rId10" xr:uid="{E7C7262A-9D55-4081-BAED-7BC6463AD8B3}"/>
-    <hyperlink ref="F12" r:id="rId11" xr:uid="{FE52E7D1-CAFB-4F82-80F9-B11118ABDEDC}"/>
-    <hyperlink ref="F13" r:id="rId12" xr:uid="{644CAF6A-B81C-4656-8998-CAC7A3EDCE27}"/>
-    <hyperlink ref="F14" r:id="rId13" xr:uid="{FA5A4E70-8713-4276-8D3C-A48A20A43DCD}"/>
-    <hyperlink ref="F15" r:id="rId14" xr:uid="{0562338C-D002-421E-B1B1-3C4B92D60A04}"/>
-    <hyperlink ref="F16" r:id="rId15" xr:uid="{D2841E07-31F8-4251-AA63-748FF6C7EFE0}"/>
-    <hyperlink ref="F17" r:id="rId16" xr:uid="{B6D2E6C8-3D4F-4807-A3C7-7E477484C153}"/>
-    <hyperlink ref="F18" r:id="rId17" xr:uid="{3434BB5F-2EC6-4B09-9598-E38F573A9AA5}"/>
-    <hyperlink ref="F20" r:id="rId18" xr:uid="{CA12FAD3-A0D3-4F8B-8841-36A91E2611EF}"/>
-    <hyperlink ref="F21" r:id="rId19" display="http://scielo.senescyt.gob.ec/scielo.php?script=sci_arttext&amp;pid=S1390-860X2021000100094&amp;lang=es" xr:uid="{E6E2C8E3-500D-4E2D-882E-24E82AFF49C3}"/>
-    <hyperlink ref="F22" r:id="rId20" xr:uid="{789B53AF-9F4B-4E3F-8B4C-57277CBA0383}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="G5" r:id="rId4"/>
+    <hyperlink ref="G6" r:id="rId5"/>
+    <hyperlink ref="G7" r:id="rId6"/>
+    <hyperlink ref="G8" r:id="rId7"/>
+    <hyperlink ref="G9" r:id="rId8"/>
+    <hyperlink ref="G10" r:id="rId9"/>
+    <hyperlink ref="G11" r:id="rId10"/>
+    <hyperlink ref="G12" r:id="rId11"/>
+    <hyperlink ref="G13" r:id="rId12"/>
+    <hyperlink ref="G14" r:id="rId13"/>
+    <hyperlink ref="G15" r:id="rId14"/>
+    <hyperlink ref="G16" r:id="rId15"/>
+    <hyperlink ref="G17" r:id="rId16"/>
+    <hyperlink ref="G18" r:id="rId17"/>
+    <hyperlink ref="G20" r:id="rId18"/>
+    <hyperlink ref="G21" r:id="rId19" display="http://scielo.senescyt.gob.ec/scielo.php?script=sci_arttext&amp;pid=S1390-860X2021000100094&amp;lang=es"/>
+    <hyperlink ref="G22" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId21"/>
@@ -2303,28 +2391,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BACD6F7-4300-4BFF-9572-39E8D52394AB}">
-  <dimension ref="A1:J50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="F1" zoomScale="98" zoomScaleNormal="115" zoomScaleSheetLayoutView="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScale="98" zoomScaleNormal="115" zoomScaleSheetLayoutView="98" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.109375" customWidth="1"/>
-    <col min="2" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="43.5546875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="41.109375" customWidth="1"/>
-    <col min="8" max="8" width="69" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="17.88671875" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="2" max="4" width="25.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
+    <col min="7" max="7" width="43.5703125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="41.140625" customWidth="1"/>
+    <col min="9" max="9" width="69" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
@@ -2332,993 +2420,1051 @@
         <v>0</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>0</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="20"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="18"/>
-    </row>
-    <row r="3" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="D2" s="13"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="20"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="18"/>
+    </row>
+    <row r="3" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
       <c r="B3" s="13"/>
-      <c r="C3" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="16">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="16">
         <v>2017</v>
       </c>
-      <c r="F3" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="H3" s="13" t="s">
+      <c r="G3" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="J3" s="16">
         <v>167</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="K3" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2</v>
       </c>
       <c r="B4" s="13"/>
-      <c r="C4" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="32">
+      <c r="C4" s="13"/>
+      <c r="D4" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="32">
         <v>43435</v>
       </c>
-      <c r="F4" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="J4" s="16">
         <v>27</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="K4" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="G5" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="I5" s="16">
+      <c r="J5" s="16">
         <v>27</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="K5" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>4</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C6" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="32">
+      <c r="C6" s="13"/>
+      <c r="D6" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="32">
         <v>45328</v>
       </c>
-      <c r="F6" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="H6" s="13" t="s">
+      <c r="G6" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="H6" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="J6" s="16">
         <v>178</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="K6" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16">
         <v>2022</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="G7" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="H7" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="G7" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="I7" s="16">
+      <c r="I7" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="J7" s="16">
         <v>178</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="K7" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="32">
+        <v>142</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="32">
         <v>44958</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="G8" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="H8" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="G8" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="I8" s="16">
+      <c r="I8" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="J8" s="16">
         <v>178</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="K8" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>6</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="32">
+      <c r="C9" s="13"/>
+      <c r="D9" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="32">
         <v>45231</v>
       </c>
-      <c r="F9" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="J9" s="16">
         <v>18</v>
       </c>
-      <c r="J9" s="16" t="s">
+      <c r="K9" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>7</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="I10" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="G10" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="I10" s="16">
+      <c r="J10" s="16">
         <v>18</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="K10" s="16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>8</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="35">
+        <v>156</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="35">
         <v>45544</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="J11" s="16">
+        <v>18</v>
+      </c>
+      <c r="K11" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="H11" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="I11" s="16">
-        <v>18</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>9</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="C12" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="16">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="16">
         <v>2023</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="13" t="s">
+      <c r="G12" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="I12" s="16">
+      <c r="H12" s="17"/>
+      <c r="I12" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="J12" s="16">
         <v>4</v>
       </c>
-      <c r="J12" s="13" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="K12" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>10</v>
       </c>
       <c r="B13" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="20" t="s">
+      <c r="H13" s="17"/>
+      <c r="I13" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="13" t="s">
+      <c r="J13" s="16">
+        <v>75</v>
+      </c>
+      <c r="K13" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="I13" s="16">
-        <v>75</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>11</v>
       </c>
       <c r="B14" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="G14" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16" t="s">
+      <c r="H14" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="G14" s="17" t="s">
+      <c r="I14" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="H14" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="I14" s="16">
+      <c r="J14" s="16">
         <v>3</v>
       </c>
-      <c r="J14" s="16" t="s">
+      <c r="K14" s="16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>12</v>
       </c>
       <c r="B15" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="F15" s="32">
+        <v>43282</v>
+      </c>
+      <c r="G15" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="32">
-        <v>43282</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="G15" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="I15" s="16">
+      <c r="H15" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="J15" s="16">
         <v>1</v>
       </c>
-      <c r="J15" s="16" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="K15" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>13</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="31">
+        <v>179</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="31">
         <v>45537</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="G16" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="H16" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="I16" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="H16" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="I16" s="16">
+      <c r="J16" s="16">
         <v>855</v>
       </c>
-      <c r="J16" s="16" t="s">
+      <c r="K16" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>14</v>
       </c>
       <c r="B17" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="31">
+        <v>45537</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="H17" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="31">
-        <v>45537</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="G17" s="17" t="s">
+      <c r="I17" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="H17" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="I17" s="16">
+      <c r="J17" s="16">
         <v>86</v>
       </c>
-      <c r="J17" s="16" t="s">
+      <c r="K17" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>15</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="D18" s="16"/>
+        <v>181</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13" t="s">
+        <v>188</v>
+      </c>
       <c r="E18" s="16"/>
-      <c r="F18" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="G18" s="17" t="s">
+      <c r="F18" s="16"/>
+      <c r="G18" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="I18" s="16">
+      <c r="I18" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="J18" s="16">
         <v>86</v>
       </c>
-      <c r="J18" s="16" t="s">
+      <c r="K18" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>16</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="F19" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="I19" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="J19" s="16">
+        <v>269</v>
+      </c>
+      <c r="K19" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="H19" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="I19" s="16">
-        <v>269</v>
-      </c>
-      <c r="J19" s="16" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>17</v>
       </c>
       <c r="B20" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="31">
+      <c r="E20" s="16"/>
+      <c r="F20" s="31">
         <v>45477</v>
       </c>
-      <c r="F20" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="I20" s="16">
+      <c r="I20" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="J20" s="16">
         <v>442</v>
       </c>
-      <c r="J20" s="16" t="s">
+      <c r="K20" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>18</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="31">
+        <v>202</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="31">
         <v>43938</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="G21" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="H21" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="I21" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="H21" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="I21" s="16">
+      <c r="J21" s="16">
         <v>1140</v>
       </c>
-      <c r="J21" s="16" t="s">
+      <c r="K21" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>19</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="32">
+        <v>206</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="32">
         <v>43862</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="G22" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="H22" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="I22" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="H22" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="I22" s="16">
+      <c r="J22" s="16">
         <v>2930</v>
       </c>
-      <c r="J22" s="16" t="s">
+      <c r="K22" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>20</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="C23" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="32">
+      <c r="C23" s="13"/>
+      <c r="D23" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E23" s="16"/>
+      <c r="F23" s="32">
         <v>45108</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="G23" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="H23" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="G23" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="I23" s="16">
+      <c r="I23" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="J23" s="16">
         <v>2190</v>
       </c>
-      <c r="J23" s="16" t="s">
+      <c r="K23" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
-      <c r="D24" s="16"/>
+      <c r="D24" s="13"/>
       <c r="E24" s="16"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="18"/>
-    </row>
-    <row r="25" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F24" s="16"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="18"/>
+    </row>
+    <row r="25" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="21"/>
+      <c r="D25" s="4"/>
       <c r="E25" s="21"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="24"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F25" s="21"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="24"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="1"/>
+      <c r="D26" s="2"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="9"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F26" s="1"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="9"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="1"/>
+      <c r="D27" s="2"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="9"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F27" s="1"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="9"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="1"/>
+      <c r="D28" s="2"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="9"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F28" s="1"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="1"/>
+      <c r="D29" s="2"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="9"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F29" s="1"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="9"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="1"/>
+      <c r="D30" s="2"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="9"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F30" s="1"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="9"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="1"/>
+      <c r="D31" s="2"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="9"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F31" s="1"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="1"/>
+      <c r="D32" s="2"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="9"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F32" s="1"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="9"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="1"/>
+      <c r="D33" s="2"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="9"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F33" s="1"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="9"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="1"/>
+      <c r="D34" s="2"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="9"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F34" s="1"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="9"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="1"/>
+      <c r="D35" s="2"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="9"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F35" s="1"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="9"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="1"/>
+      <c r="D36" s="2"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="9"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F36" s="1"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="9"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="28"/>
       <c r="B37" s="29"/>
       <c r="C37" s="29"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="9"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="26"/>
       <c r="H37" s="9"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="9"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I37" s="9"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="9"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="28"/>
       <c r="B38" s="29"/>
       <c r="C38" s="29"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="9"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D38" s="29"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="9"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="28"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="24"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="26"/>
       <c r="H39" s="24"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="9"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I39" s="24"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="9"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="28"/>
       <c r="B40" s="27"/>
       <c r="C40" s="27"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="9"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D40" s="27"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="9"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="28"/>
       <c r="B41" s="28"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="9"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C41" s="28"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="9"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="27"/>
       <c r="C42" s="27"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="9"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D42" s="27"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="9"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="28"/>
       <c r="B43" s="27"/>
       <c r="C43" s="27"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="9"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D43" s="27"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="9"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="9"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D44" s="27"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="9"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="27"/>
       <c r="C45" s="27"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="9"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D45" s="27"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="9"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="28"/>
       <c r="B46" s="27"/>
       <c r="C46" s="27"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="9"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D46" s="27"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="9"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="28"/>
       <c r="B47" s="27"/>
       <c r="C47" s="27"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="9"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D47" s="27"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="9"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="28"/>
       <c r="B48" s="27"/>
       <c r="C48" s="27"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="9"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D48" s="27"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="9"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="11"/>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H50" s="15"/>
+      <c r="K49" s="9"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I50" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J24" xr:uid="{9120DF18-0D78-4B36-87D3-873C50E5E09A}"/>
+  <autoFilter ref="A1:K24"/>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{5585B8E9-AC79-4D32-BEAD-340387BC4A2B}"/>
-    <hyperlink ref="F5" r:id="rId2" xr:uid="{7347FD32-49ED-4579-8DCC-12976BC6816B}"/>
-    <hyperlink ref="F7" r:id="rId3" xr:uid="{855A8F32-EB41-41B3-A68E-74BA5578F3BD}"/>
-    <hyperlink ref="F8" r:id="rId4" xr:uid="{19DCAFBD-A5D7-4A7E-9E7F-5ED1123B1C97}"/>
-    <hyperlink ref="F9" r:id="rId5" xr:uid="{4BE655AA-B711-4C5D-B8A0-3F2CCA887B50}"/>
-    <hyperlink ref="F10" r:id="rId6" xr:uid="{995E0338-8971-47F8-9DF2-8CE761F6302C}"/>
-    <hyperlink ref="F12" r:id="rId7" xr:uid="{3F00EA36-EBBA-4B57-9087-A71771063C98}"/>
-    <hyperlink ref="F14" r:id="rId8" xr:uid="{08BCA5A4-34A6-4314-9FE8-02A86A8CEEAF}"/>
-    <hyperlink ref="F16" r:id="rId9" xr:uid="{09A8A7BA-2389-4790-8E9A-A4E89C976EC0}"/>
-    <hyperlink ref="F17" r:id="rId10" xr:uid="{F899CFE7-7044-42FB-9E4E-DCDF5410C0EB}"/>
-    <hyperlink ref="F18" r:id="rId11" xr:uid="{ABD35FBC-13A0-489A-BE65-31B77DC5A6CF}"/>
-    <hyperlink ref="F19" r:id="rId12" xr:uid="{B58D6C11-3E06-4467-8E36-E80E2A119AE1}"/>
-    <hyperlink ref="F20" r:id="rId13" xr:uid="{3D2181A4-951D-45E4-80E2-32947F0D3B16}"/>
-    <hyperlink ref="F21" r:id="rId14" xr:uid="{2061C532-415A-4C34-AFB7-5A04008FBD04}"/>
-    <hyperlink ref="F23" r:id="rId15" xr:uid="{6592C589-A894-4801-AC0B-6B78FE1EB4C2}"/>
+    <hyperlink ref="G3" r:id="rId1"/>
+    <hyperlink ref="G5" r:id="rId2"/>
+    <hyperlink ref="G7" r:id="rId3"/>
+    <hyperlink ref="G8" r:id="rId4"/>
+    <hyperlink ref="G9" r:id="rId5"/>
+    <hyperlink ref="G10" r:id="rId6"/>
+    <hyperlink ref="G12" r:id="rId7"/>
+    <hyperlink ref="G14" r:id="rId8"/>
+    <hyperlink ref="G16" r:id="rId9"/>
+    <hyperlink ref="G17" r:id="rId10"/>
+    <hyperlink ref="G18" r:id="rId11"/>
+    <hyperlink ref="G19" r:id="rId12"/>
+    <hyperlink ref="G20" r:id="rId13"/>
+    <hyperlink ref="G21" r:id="rId14"/>
+    <hyperlink ref="G23" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup scale="93" orientation="portrait" r:id="rId16"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="6" max="1048575" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>